--- a/Planned_Air_Export_Shipment_Tracking.xlsx
+++ b/Planned_Air_Export_Shipment_Tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9087C3-0343-4048-BC0F-91E8F83BDDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1724146-6A96-40F0-91A1-9EE86C814DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="97">
   <si>
     <t>ETD</t>
   </si>
@@ -280,12 +280,6 @@
     <t>Planned_Booking</t>
   </si>
   <si>
-    <t>Planned_HBL_MBL_Draft</t>
-  </si>
-  <si>
-    <t>Planned_Shipping_Bill_Checklist</t>
-  </si>
-  <si>
     <t>Planned_Gate_in_Confirmation</t>
   </si>
   <si>
@@ -304,13 +298,19 @@
     <t>Planned_Line_Invoice_Payment</t>
   </si>
   <si>
-    <t>Planned_HBL_MBL_Release</t>
-  </si>
-  <si>
     <t>Planned_Pre_Alert</t>
   </si>
   <si>
     <t>Quotation_Remarks</t>
+  </si>
+  <si>
+    <t>Planned_Shipping_Bill_Check_list</t>
+  </si>
+  <si>
+    <t>Planned_HBL_and_MBL_Release</t>
+  </si>
+  <si>
+    <t>Planned_HBL_and_MBL_Draft</t>
   </si>
 </sst>
 </file>
@@ -782,22 +782,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -831,37 +831,37 @@
         <v>85</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1099,9 +1099,7 @@
       <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
         <v>6</v>
       </c>
